--- a/input/portfolio_data.xlsx
+++ b/input/portfolio_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongsheng.tan\Documents\Coding\github-project\simple_portfolio_analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B264E-0D59-4C9E-BA93-B19512F6905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C64ED18-F11C-46EA-BC31-DC6782B22A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="13920" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +281,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -629,17 +637,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,7 +700,9 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BCB5BBAC-14C3-4AFD-884F-CDD872ADAB43}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1000,12 +1014,12 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.54296875" bestFit="1" customWidth="1"/>
@@ -1017,58 +1031,58 @@
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>44118</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1077,10 +1091,10 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1089,13 +1103,13 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>4.54</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>200</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>10</v>
       </c>
       <c r="K2" s="2">
@@ -1105,7 +1119,7 @@
         <f>H2*I2+J2</f>
         <v>918</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1114,7 +1128,7 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>44153</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1123,10 +1137,10 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1135,13 +1149,13 @@
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1.66</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>200</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>20</v>
       </c>
       <c r="K3" s="2">
@@ -1151,7 +1165,7 @@
         <f t="shared" ref="L3:L14" si="0">H3*I3+J3</f>
         <v>352</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1160,7 +1174,7 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>44148</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1169,10 +1183,10 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1181,13 +1195,13 @@
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>10</v>
       </c>
       <c r="K4" s="2">
@@ -1197,7 +1211,7 @@
         <f t="shared" si="0"/>
         <v>411.99999999999994</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1206,7 +1220,7 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1215,10 +1229,10 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1227,13 +1241,13 @@
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.73</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2">
@@ -1243,7 +1257,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1252,7 +1266,7 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>44158</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1261,10 +1275,10 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1273,13 +1287,13 @@
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>2.9</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>200</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>10</v>
       </c>
       <c r="K6" s="2">
@@ -1289,7 +1303,7 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1298,7 +1312,7 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1307,10 +1321,10 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1319,13 +1333,13 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>3.98</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>10</v>
       </c>
       <c r="K7" s="2">
@@ -1335,7 +1349,7 @@
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1344,7 +1358,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1353,10 +1367,10 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1365,13 +1379,13 @@
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>2.62</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>200</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>10</v>
       </c>
       <c r="K8" s="2">
@@ -1381,7 +1395,7 @@
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1389,7 +1403,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1398,10 +1412,10 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1410,13 +1424,13 @@
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>200</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>10</v>
       </c>
       <c r="K9" s="2">
@@ -1426,7 +1440,7 @@
         <f t="shared" si="0"/>
         <v>241.99999999999997</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1434,7 +1448,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1443,10 +1457,10 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1455,13 +1469,13 @@
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0.87</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>300</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>20</v>
       </c>
       <c r="K10" s="2">
@@ -1471,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1479,7 +1493,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>44179</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1488,10 +1502,10 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1500,13 +1514,13 @@
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>2.54</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>200</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>10</v>
       </c>
       <c r="K11" s="2">
@@ -1516,7 +1530,7 @@
         <f t="shared" si="0"/>
         <v>518</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1524,7 +1538,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>44179</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1533,10 +1547,10 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1545,13 +1559,13 @@
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>200</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>10</v>
       </c>
       <c r="K12" s="2">
@@ -1561,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>232.00000000000003</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1569,7 +1583,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>44179</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1578,10 +1592,10 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1590,13 +1604,13 @@
       <c r="G13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>4.8099999999999996</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>20</v>
       </c>
       <c r="K13" s="2">
@@ -1606,7 +1620,7 @@
         <f t="shared" si="0"/>
         <v>500.99999999999994</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1614,7 +1628,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>44279</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1623,10 +1637,10 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1635,13 +1649,13 @@
       <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>1.95</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>200</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
@@ -1651,7 +1665,7 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1668,5 +1682,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>